--- a/results/pvalue_SIDER_all_enzyme_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.013</t>
+          <t>5.213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.196</t>
+          <t>5.434</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.461</t>
+          <t>5.713</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.876</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.183</t>
+          <t>20.164</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19.671</t>
+          <t>19.651</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.022</t>
+          <t>20.001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.257</t>
+          <t>20.237</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.038</t>
+          <t>14.015</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
